--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,165 +46,168 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>paint</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>tried</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>size</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>look</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>2</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -223,12 +226,12 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -241,31 +244,31 @@
     <t>loves</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K3">
-        <v>0.8214285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -737,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -745,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4">
-        <v>0.7846153846153846</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -787,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.796875</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5">
-        <v>0.7634408602150538</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L5">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M5">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -837,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -845,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>0.59375</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7605633802816901</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7">
-        <v>0.5849056603773585</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -945,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7365591397849462</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K8">
-        <v>0.391304347826087</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7281553398058253</v>
+        <v>0.7330097087378641</v>
       </c>
       <c r="C9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9">
-        <v>0.3688524590163935</v>
+        <v>0.3721311475409836</v>
       </c>
       <c r="L9">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M9">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6486486486486487</v>
+        <v>0.703125</v>
       </c>
       <c r="C10">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K10">
-        <v>0.3400286944045911</v>
+        <v>0.3405172413793103</v>
       </c>
       <c r="L10">
         <v>237</v>
       </c>
       <c r="M10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1084,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6181818181818182</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11">
-        <v>0.2925311203319502</v>
+        <v>0.3029045643153527</v>
       </c>
       <c r="L11">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M11">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12">
-        <v>0.2916666666666667</v>
+        <v>0.2324159021406728</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>85</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13">
-        <v>0.2409638554216867</v>
+        <v>0.2228915662650602</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5238095238095238</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14">
-        <v>0.2110091743119266</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="L14">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>258</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4956521739130435</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C15">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>0.2063492063492063</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>150</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4888888888888889</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,31 +1366,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16">
-        <v>0.1183172655565294</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="L16">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>1006</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4814814814814815</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17">
-        <v>0.1182795698924731</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>164</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4791666666666667</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,19 +1466,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18">
-        <v>0.1004016064257028</v>
+        <v>0.1095530236634531</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>224</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1495,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,31 +1516,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19">
-        <v>0.06128133704735376</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>337</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4444444444444444</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K20">
-        <v>0.05714285714285714</v>
+        <v>0.03619302949061663</v>
       </c>
       <c r="L20">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1452</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4330708661417323</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,13 +1624,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4265402843601896</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C22">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1639,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1647,13 +1650,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4096385542168675</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1665,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1673,13 +1676,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.40625</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1699,13 +1702,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3861386138613861</v>
+        <v>0.375</v>
       </c>
       <c r="C25">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1717,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>124</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1725,13 +1728,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3770491803278688</v>
+        <v>0.3507109004739337</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1743,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>38</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1751,13 +1754,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.375</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C27">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1769,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>80</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1777,13 +1780,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3707865168539326</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1795,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1803,13 +1806,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3076923076923077</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1821,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1829,13 +1832,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2755102040816326</v>
+        <v>0.3125</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1847,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1855,13 +1858,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2319587628865979</v>
+        <v>0.2938144329896907</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D31">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1873,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1881,25 +1884,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.224368499257058</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C32">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="E32">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>522</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1907,13 +1910,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2101910828025478</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1925,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>124</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1933,13 +1936,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2</v>
+        <v>0.2356687898089172</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1951,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1959,13 +1962,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1993670886075949</v>
+        <v>0.215</v>
       </c>
       <c r="C35">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D35">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1977,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>253</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1985,25 +1988,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1956521739130435</v>
+        <v>0.2080237741456167</v>
       </c>
       <c r="C36">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="D36">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>222</v>
+        <v>533</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2011,13 +2014,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1875</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2029,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>104</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2037,13 +2040,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1835443037974684</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C38">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D38">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2055,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2063,13 +2066,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1692307692307692</v>
+        <v>0.1982378854625551</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2081,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>108</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2089,25 +2092,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1642857142857143</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C40">
         <v>23</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2115,13 +2118,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1635514018691589</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C41">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2133,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>179</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2141,25 +2144,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1613832853025937</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E42">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>291</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2167,13 +2170,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1607929515418502</v>
+        <v>0.1796875</v>
       </c>
       <c r="C43">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2185,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>381</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2193,13 +2196,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1542857142857143</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2211,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2219,13 +2222,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1465968586387434</v>
+        <v>0.15625</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2237,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2245,25 +2248,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1420765027322404</v>
+        <v>0.1469740634005764</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D46">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>157</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2271,25 +2274,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1345029239766082</v>
+        <v>0.145748987854251</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>148</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2297,25 +2300,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1278195488721804</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C48">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>232</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2323,25 +2326,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.126027397260274</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C49">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D49">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>319</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2349,13 +2352,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.125</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2367,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2375,13 +2378,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1008064516129032</v>
+        <v>0.1205479452054795</v>
       </c>
       <c r="C51">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2393,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>223</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2401,25 +2404,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.09859154929577464</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>320</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2427,25 +2430,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09390444810543658</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C53">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D53">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E53">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>550</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2453,25 +2456,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0779510022271715</v>
+        <v>0.09598214285714286</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2479,13 +2482,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07278481012658228</v>
+        <v>0.08745874587458746</v>
       </c>
       <c r="C55">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E55">
         <v>0.04</v>
@@ -2497,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>293</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2505,25 +2508,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.07226107226107226</v>
+        <v>0.08732394366197183</v>
       </c>
       <c r="C56">
         <v>31</v>
       </c>
       <c r="D56">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E56">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>398</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2531,13 +2534,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.05607476635514019</v>
+        <v>0.07911392405063292</v>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E57">
         <v>0.04</v>
@@ -2549,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>404</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2557,25 +2560,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.05196451204055767</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="C58">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D58">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E58">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F58">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>748</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2583,13 +2586,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.03686635944700461</v>
+        <v>0.05590851334180432</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D59">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E59">
         <v>0.14</v>
@@ -2601,7 +2604,33 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>627</v>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.04769230769230769</v>
+      </c>
+      <c r="C60">
+        <v>31</v>
+      </c>
+      <c r="D60">
+        <v>36</v>
+      </c>
+      <c r="E60">
+        <v>0.14</v>
+      </c>
+      <c r="F60">
+        <v>0.86</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
